--- a/public/assets/sample_two.xlsx
+++ b/public/assets/sample_two.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albogast\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\steam\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638F9A95-E223-4F10-B049-493EBB13AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stanbica" sheetId="3" r:id="rId1"/>
@@ -19,132 +20,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
-  <si>
-    <t>AMINIEL PALLANGYO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>AFRICAN ARTEMISIA LIMITED</t>
   </si>
   <si>
-    <t>+255(000)784326197</t>
-  </si>
-  <si>
-    <t>ARUSHA BRANCH</t>
-  </si>
-  <si>
-    <t>SAID UREMBO MAWAMBA</t>
-  </si>
-  <si>
-    <t>AFSAT COMMUNICATIONS TZ LTD</t>
-  </si>
-  <si>
-    <t>+255(000)715429494</t>
-  </si>
-  <si>
-    <t>MAIN BRANCH</t>
-  </si>
-  <si>
-    <t>MOHAMED AYUB MBAWA</t>
-  </si>
-  <si>
-    <t>AIRTEL TANZANIA LIMITED</t>
-  </si>
-  <si>
-    <t>+255(000)786670742</t>
-  </si>
-  <si>
     <t>PENINSULA BRANCH</t>
   </si>
   <si>
-    <t>PRUDENCE LUKUYE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+255(000)786970661 </t>
-  </si>
-  <si>
-    <t>MASEU KAZEMBE</t>
-  </si>
-  <si>
-    <t>CFAO MOTORS TANZANIA LIMITED</t>
-  </si>
-  <si>
-    <t>+255(000)767221102</t>
-  </si>
-  <si>
     <t>INDUSTRIAL BRANCH</t>
   </si>
   <si>
-    <t>STELLAH ADAMS</t>
-  </si>
-  <si>
-    <t>CLOUDS ENTERTAINMENT CO. LTD</t>
-  </si>
-  <si>
-    <t>+255(000)788904169</t>
-  </si>
-  <si>
-    <t>SALUM KISAKA</t>
-  </si>
-  <si>
-    <t>COCA COLA KWANZA LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+255(000)714513500 </t>
-  </si>
-  <si>
     <t>MBEYA BRANCH</t>
   </si>
   <si>
-    <t>ANDREW CHRISPIAN MNDALA</t>
-  </si>
-  <si>
-    <t>G4S SECURE SOLUTIONS (TZ) LIMITED</t>
-  </si>
-  <si>
-    <t>+255(000)655886805</t>
-  </si>
-  <si>
-    <t>HIGHWAY LINK TRAVEL</t>
-  </si>
-  <si>
-    <t>IDIMI INVESTEMENT LTD</t>
-  </si>
-  <si>
-    <t>+255(000)755680849</t>
-  </si>
-  <si>
-    <t>NYEBAJA JOEL MABIBA</t>
-  </si>
-  <si>
-    <t>JOEL M. MABIBA LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+255(000)759462085 </t>
-  </si>
-  <si>
-    <t>KASANDA ENTERPRISES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+255(000)9999999 </t>
-  </si>
-  <si>
     <t>CENTRE BRANCH</t>
   </si>
   <si>
@@ -178,27 +72,78 @@
     <t>Stanbick Bank</t>
   </si>
   <si>
-    <t>Albogast</t>
-  </si>
-  <si>
-    <t>Sakaya Steam</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Mussa Hassan</t>
+    <t>Sia Maro</t>
+  </si>
+  <si>
+    <t>MOSHA VICKY DIAS</t>
+  </si>
+  <si>
+    <t>MARTHA MANASE</t>
+  </si>
+  <si>
+    <t>SIA PETER</t>
+  </si>
+  <si>
+    <t>LOYCE KILASI</t>
+  </si>
+  <si>
+    <t>VICKY DIAS</t>
+  </si>
+  <si>
+    <t>PENIEL EVAREST</t>
+  </si>
+  <si>
+    <t>FLORA BARNABAS</t>
+  </si>
+  <si>
+    <t>MUNGURE MANASE</t>
+  </si>
+  <si>
+    <t>SANGOI PETER</t>
+  </si>
+  <si>
+    <t>SUMARI KILASI</t>
+  </si>
+  <si>
+    <t>+255(000)784326199</t>
+  </si>
+  <si>
+    <t>+255(000)784326200</t>
+  </si>
+  <si>
+    <t>+255(000)784326201</t>
+  </si>
+  <si>
+    <t>+255(000)784326202</t>
+  </si>
+  <si>
+    <t>+255(000)784326203</t>
+  </si>
+  <si>
+    <t>+255(000)784326204</t>
+  </si>
+  <si>
+    <t>+255(000)784326205</t>
+  </si>
+  <si>
+    <t>+255(000)784326206</t>
+  </si>
+  <si>
+    <t>+255(000)784326207</t>
+  </si>
+  <si>
+    <t>+255(000)784326208</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +169,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -293,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,30 +265,17 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -687,388 +625,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7">
+        <v>9120000194718</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
-        <v>9120000112907</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="8">
+        <v>9302088.9800000004</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9120000249259</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>14234452.67</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9120000290165</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G4" s="8">
+        <v>3170689.05</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9120000331071</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10256305.17</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9120000371977</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8">
-        <v>2049460.68</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="G6" s="8">
+        <v>1488908.9100000001</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9120000412883</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2318714.42</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9120000453789</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>38527691.600000001</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9120000494695</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>85240752.090000004</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9120000535601</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3749368.61</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9120000576507</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7">
-        <v>9120000194717</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8">
-        <v>3542154.08</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7">
-        <v>9120000266246</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8">
-        <v>9302088.9800000004</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
-        <v>9120001242618</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8">
-        <v>14234452.67</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="G11" s="10">
+        <v>67213103.180000007</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7">
-        <v>9120000149681</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3170689.05</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7">
-        <v>9120000256984</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8">
-        <v>10256305.17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7">
-        <v>9120001431852</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1488908.9100000001</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7">
-        <v>9120000262852</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2318714.42</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7">
-        <v>9120000900190</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="8">
-        <v>38527691.600000001</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9120000310202</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="8">
-        <v>85240752.090000004</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9120000122422</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3749368.61</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10">
-        <v>140025092401</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="12">
-        <v>67213103.180000007</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="13"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B13">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="H2 H4 H6 H8 H10">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4 H6 H8 H10 H12">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A5">
+  <conditionalFormatting sqref="B2:B7">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
+  <conditionalFormatting sqref="B8:B13">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/sample_two.xlsx
+++ b/public/assets/sample_two.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\steam\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638F9A95-E223-4F10-B049-493EBB13AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B12AE15-1E92-4071-BD0F-BBB3E6F8B682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>AFRICAN ARTEMISIA LIMITED</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>+255(000)784326208</t>
+  </si>
+  <si>
+    <t>nextkin</t>
+  </si>
+  <si>
+    <t>kinphone</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +182,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -270,6 +289,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -626,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,7 +663,7 @@
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -671,8 +691,14 @@
       <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -699,7 +725,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -726,7 +752,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -753,7 +779,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -780,7 +806,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -807,7 +833,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -834,7 +860,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -861,7 +887,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -888,7 +914,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -915,7 +941,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -942,10 +968,10 @@
       </c>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
     </row>
   </sheetData>

--- a/public/assets/sample_two.xlsx
+++ b/public/assets/sample_two.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\steam\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B12AE15-1E92-4071-BD0F-BBB3E6F8B682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED33BBE-5178-4A41-9B78-F95DDF82CA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stanbica" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>AFRICAN ARTEMISIA LIMITED</t>
   </si>
@@ -139,6 +148,12 @@
   </si>
   <si>
     <t>kinphone</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>nextaction</t>
   </si>
 </sst>
 </file>
@@ -263,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -290,6 +305,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -646,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,7 +680,7 @@
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -691,14 +708,20 @@
       <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -724,8 +747,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -751,8 +776,10 @@
         <v>14</v>
       </c>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -778,8 +805,10 @@
         <v>14</v>
       </c>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -805,8 +834,10 @@
         <v>14</v>
       </c>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -832,8 +863,10 @@
         <v>14</v>
       </c>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -859,8 +892,10 @@
         <v>14</v>
       </c>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -886,8 +921,10 @@
         <v>14</v>
       </c>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -913,8 +950,10 @@
         <v>14</v>
       </c>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -940,8 +979,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -967,11 +1008,13 @@
         <v>14</v>
       </c>
       <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
     </row>
   </sheetData>
